--- a/protected/commands/template/m_template_xidi.xlsx
+++ b/protected/commands/template/m_template_xidi.xlsx
@@ -785,6 +785,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
       <t>上月技術員最</t>
     </r>
     <r>
@@ -1571,12 +1576,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -1715,20 +1720,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,6 +1754,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1813,14 +1820,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1828,9 +1827,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1924,6 +1929,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1936,19 +1953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,13 +1977,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2032,7 +2043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,7 +2055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,12 +2086,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,13 +2127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,6 +2317,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2347,17 +2367,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2365,17 +2374,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2422,202 +2427,202 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2629,22 +2634,22 @@
     <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3086,10 +3091,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3121,26 +3126,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3505,8 +3510,8 @@
   <sheetPr/>
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="5"/>
@@ -5063,7 +5068,7 @@
         <v>172</v>
       </c>
       <c r="E120" s="105">
-        <f>IF(C120&gt;=6,0,IF(C120&gt;=0,1,IF(C120&gt;=-0.04,2,IF(C120&gt;=-0.09,3,IF(C120&gt;=-0.14,4,5)))))</f>
+        <f>IF(C120&gt;=0.06,0,IF(C120&gt;=0,1,IF(C120&gt;=-0.04,2,IF(C120&gt;=-0.09,3,IF(C120&gt;=-0.14,4,5)))))</f>
         <v>1</v>
       </c>
       <c r="F120" s="112"/>
